--- a/example_files/stem_information.xlsx
+++ b/example_files/stem_information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uqoca.sharepoint.com/sites/MEC-PN-PR/Documents partages/General/article_compression/projetPython/LMS_Compressor/example_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uqoca.sharepoint.com/sites/MEC-PN-PR/Documents partages/General/article_compression/projetPython/NoiseCompressor/example_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{60FDF49B-7E14-47C7-B5FB-AF8D25E6B07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE28E57-3633-4FEF-8C4B-A970589F97E4}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{60FDF49B-7E14-47C7-B5FB-AF8D25E6B07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281F3116-3C10-4386-B9E0-173883B6E91D}"/>
   <bookViews>
-    <workbookView xWindow="-25590" yWindow="-8895" windowWidth="8340" windowHeight="8880" xr2:uid="{CE1FD152-1768-4D12-AC71-A38632524EE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE1FD152-1768-4D12-AC71-A38632524EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>10001.ply</t>
   </si>
@@ -160,96 +160,6 @@
   </si>
   <si>
     <t>23436.ply</t>
-  </si>
-  <si>
-    <t>stem1</t>
-  </si>
-  <si>
-    <t>stem2</t>
-  </si>
-  <si>
-    <t>stem3</t>
-  </si>
-  <si>
-    <t>stem4</t>
-  </si>
-  <si>
-    <t>stem5</t>
-  </si>
-  <si>
-    <t>stem6</t>
-  </si>
-  <si>
-    <t>stem7</t>
-  </si>
-  <si>
-    <t>stem8</t>
-  </si>
-  <si>
-    <t>stem9</t>
-  </si>
-  <si>
-    <t>stem10</t>
-  </si>
-  <si>
-    <t>stem11</t>
-  </si>
-  <si>
-    <t>stem12</t>
-  </si>
-  <si>
-    <t>stem13</t>
-  </si>
-  <si>
-    <t>stem14</t>
-  </si>
-  <si>
-    <t>stem15</t>
-  </si>
-  <si>
-    <t>stem16</t>
-  </si>
-  <si>
-    <t>stem17</t>
-  </si>
-  <si>
-    <t>stem18</t>
-  </si>
-  <si>
-    <t>stem19</t>
-  </si>
-  <si>
-    <t>stem20</t>
-  </si>
-  <si>
-    <t>stem21</t>
-  </si>
-  <si>
-    <t>stem22</t>
-  </si>
-  <si>
-    <t>stem23</t>
-  </si>
-  <si>
-    <t>stem24</t>
-  </si>
-  <si>
-    <t>stem25</t>
-  </si>
-  <si>
-    <t>stem26</t>
-  </si>
-  <si>
-    <t>stem27</t>
-  </si>
-  <si>
-    <t>stem28</t>
-  </si>
-  <si>
-    <t>stem29</t>
-  </si>
-  <si>
-    <t>stem30</t>
   </si>
 </sst>
 </file>
@@ -664,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4F2F4B-E1E5-4937-B801-EB78B931FB0C}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -756,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E154DEEC-CC39-4E66-B85F-F2BBD06A6C32}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,8 +690,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
+      <c r="A2" s="1">
+        <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -794,8 +704,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
+      <c r="A3" s="1">
+        <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -808,8 +718,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
+      <c r="A4" s="1">
+        <v>10004</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -822,8 +732,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
+      <c r="A5" s="1">
+        <v>20506</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -836,8 +746,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
+      <c r="A6" s="1">
+        <v>20607</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -850,8 +760,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
+      <c r="A7" s="1">
+        <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -864,8 +774,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
+      <c r="A8" s="1">
+        <v>10008</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -878,8 +788,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
+      <c r="A9" s="1">
+        <v>20709</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -892,8 +802,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
+      <c r="A10" s="1">
+        <v>10809</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -906,8 +816,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
+      <c r="A11" s="1">
+        <v>20809</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -920,8 +830,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
+      <c r="A12" s="1">
+        <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -934,8 +844,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
+      <c r="A13" s="1">
+        <v>11011</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -948,8 +858,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
+      <c r="A14" s="1">
+        <v>21112</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>32</v>
@@ -962,8 +872,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
+      <c r="A15" s="1">
+        <v>11315</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
@@ -976,8 +886,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
+      <c r="A16" s="1">
+        <v>21315</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -990,8 +900,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
+      <c r="A17" s="1">
+        <v>21617</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -1004,8 +914,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
+      <c r="A18" s="1">
+        <v>21719</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -1018,8 +928,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
+      <c r="A19" s="1">
+        <v>11820</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1032,8 +942,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
+      <c r="A20" s="1">
+        <v>12323</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -1046,8 +956,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
+      <c r="A21" s="1">
+        <v>22526</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
@@ -1060,8 +970,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
+      <c r="A22" s="1">
+        <v>12628</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -1074,8 +984,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
+      <c r="A23" s="1">
+        <v>22729</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>37</v>
@@ -1088,8 +998,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
+      <c r="A24" s="1">
+        <v>22830</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
@@ -1102,8 +1012,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
+      <c r="A25" s="1">
+        <v>13031</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1116,8 +1026,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
+      <c r="A26" s="1">
+        <v>23132</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
@@ -1130,8 +1040,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
+      <c r="A27" s="1">
+        <v>13335</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -1144,8 +1054,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
+      <c r="A28" s="1">
+        <v>23436</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>40</v>
@@ -1158,8 +1068,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>68</v>
+      <c r="A29" s="1">
+        <v>13638</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -1172,8 +1082,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
+      <c r="A30" s="1">
+        <v>14445</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
@@ -1186,8 +1096,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
+      <c r="A31" s="1">
+        <v>14648</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -1220,6 +1130,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067561CF43E5D434FA345B07FFEA6F816" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9563de8a435e40aeb0359a2f7f7e11ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4bd17c4-6f9c-4326-b2a1-a58069266969" xmlns:ns3="a41828e9-8869-432d-b313-752f76d5a57b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88425bd06160e728a005bb52157568c3" ns2:_="" ns3:_="">
     <xsd:import namespace="c4bd17c4-6f9c-4326-b2a1-a58069266969"/>
@@ -1448,15 +1367,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DE0A109-52F3-4132-982D-D532CBBF5548}">
   <ds:schemaRefs>
@@ -1469,6 +1379,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{419D5967-F5E3-4D49-9D42-0A3DB805D544}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE31825-D19A-4AD8-A7FD-BD1DF1BE2DA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1485,12 +1403,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{419D5967-F5E3-4D49-9D42-0A3DB805D544}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>